--- a/Code/Results/Cases/Case_1_243/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_243/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.146660539974192</v>
+        <v>0.9586238692716051</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02949573243969184</v>
+        <v>0.009144461530631531</v>
       </c>
       <c r="E2">
-        <v>0.5264167106684994</v>
+        <v>0.6722825207559993</v>
       </c>
       <c r="F2">
-        <v>0.534615088697187</v>
+        <v>0.384057915175795</v>
       </c>
       <c r="G2">
-        <v>0.4456692615700035</v>
+        <v>0.2493200085657747</v>
       </c>
       <c r="H2">
-        <v>0.2608676207463105</v>
+        <v>0.3688069070791613</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4054967308370863</v>
+        <v>0.1544792843802014</v>
       </c>
       <c r="M2">
-        <v>0.337239829950569</v>
+        <v>0.2034375728087099</v>
       </c>
       <c r="N2">
-        <v>1.624140337668024</v>
+        <v>1.784511145164188</v>
       </c>
       <c r="O2">
-        <v>1.443923921206959</v>
+        <v>1.152264400375913</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.014206261482627</v>
+        <v>0.9232221726074954</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02567953891583841</v>
+        <v>0.007958255668356173</v>
       </c>
       <c r="E3">
-        <v>0.5085147369115504</v>
+        <v>0.6684553001518125</v>
       </c>
       <c r="F3">
-        <v>0.4714847319659867</v>
+        <v>0.3700419434593272</v>
       </c>
       <c r="G3">
-        <v>0.3895957682154148</v>
+        <v>0.2360756146370449</v>
       </c>
       <c r="H3">
-        <v>0.239141462467316</v>
+        <v>0.3659973866940902</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3527616935190565</v>
+        <v>0.138264602842483</v>
       </c>
       <c r="M3">
-        <v>0.2950484612815174</v>
+        <v>0.1912961617525397</v>
       </c>
       <c r="N3">
-        <v>1.572104318667698</v>
+        <v>1.772666014063461</v>
       </c>
       <c r="O3">
-        <v>1.279231471061024</v>
+        <v>1.118026951725682</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9333516215036184</v>
+        <v>0.9018086496192268</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02333604660193345</v>
+        <v>0.007228256460006577</v>
       </c>
       <c r="E4">
-        <v>0.4976720898395186</v>
+        <v>0.6662555964438113</v>
       </c>
       <c r="F4">
-        <v>0.4334217570269772</v>
+        <v>0.3617052620121228</v>
       </c>
       <c r="G4">
-        <v>0.3557769610686847</v>
+        <v>0.2281328915768626</v>
       </c>
       <c r="H4">
-        <v>0.2262087458908013</v>
+        <v>0.3644839444711607</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3203924365206205</v>
+        <v>0.1283049262639651</v>
       </c>
       <c r="M4">
-        <v>0.2692212767188984</v>
+        <v>0.1838900102612087</v>
       </c>
       <c r="N4">
-        <v>1.541442522445209</v>
+        <v>1.766078413195842</v>
       </c>
       <c r="O4">
-        <v>1.180246215560544</v>
+        <v>1.097839114247421</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9005108533517898</v>
+        <v>0.8931645848557821</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02238077188926724</v>
+        <v>0.006930374724575472</v>
       </c>
       <c r="E5">
-        <v>0.49329267280892</v>
+        <v>0.6653974009233821</v>
       </c>
       <c r="F5">
-        <v>0.418071814616475</v>
+        <v>0.3583756640998104</v>
       </c>
       <c r="G5">
-        <v>0.3421347668206209</v>
+        <v>0.2249436815688171</v>
       </c>
       <c r="H5">
-        <v>0.221034503937986</v>
+        <v>0.3639204508781688</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3072012492611407</v>
+        <v>0.1242456165055899</v>
       </c>
       <c r="M5">
-        <v>0.2587132553905036</v>
+        <v>0.1808844404367065</v>
       </c>
       <c r="N5">
-        <v>1.52926419300735</v>
+        <v>1.763567264345355</v>
       </c>
       <c r="O5">
-        <v>1.140402369049497</v>
+        <v>1.089821979151111</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8950638977891003</v>
+        <v>0.8917342288413295</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02222212657054001</v>
+        <v>0.006880887970279304</v>
       </c>
       <c r="E6">
-        <v>0.492567876978832</v>
+        <v>0.6652572180304901</v>
       </c>
       <c r="F6">
-        <v>0.4155322740833327</v>
+        <v>0.3578268732493655</v>
       </c>
       <c r="G6">
-        <v>0.3398774962193727</v>
+        <v>0.2244169822080977</v>
       </c>
       <c r="H6">
-        <v>0.2201809369685321</v>
+        <v>0.3638301001561075</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3050107503435697</v>
+        <v>0.1235715399681112</v>
       </c>
       <c r="M6">
-        <v>0.2569693354479163</v>
+        <v>0.1803861298627929</v>
       </c>
       <c r="N6">
-        <v>1.527260904170703</v>
+        <v>1.763160789950348</v>
       </c>
       <c r="O6">
-        <v>1.133814890641162</v>
+        <v>1.088503392742496</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9329082952989722</v>
+        <v>0.9016917391358561</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02332316483265373</v>
+        <v>0.00722424072483463</v>
       </c>
       <c r="E7">
-        <v>0.4976128673663993</v>
+        <v>0.6662438672750639</v>
       </c>
       <c r="F7">
-        <v>0.4332141094160917</v>
+        <v>0.3616600839357318</v>
       </c>
       <c r="G7">
-        <v>0.3555924322539141</v>
+        <v>0.2280896885382617</v>
       </c>
       <c r="H7">
-        <v>0.2261385840835288</v>
+        <v>0.3644761293625152</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3202145412598583</v>
+        <v>0.128250183277828</v>
       </c>
       <c r="M7">
-        <v>0.269079497789015</v>
+        <v>0.1838494251705214</v>
       </c>
       <c r="N7">
-        <v>1.5412770088044</v>
+        <v>1.766043843718521</v>
       </c>
       <c r="O7">
-        <v>1.179706925938206</v>
+        <v>1.097730144033875</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.100885493555779</v>
+        <v>0.9463507579103521</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02817985459793704</v>
+        <v>0.008735813160249961</v>
       </c>
       <c r="E8">
-        <v>0.5202140455785766</v>
+        <v>0.6709319691538838</v>
       </c>
       <c r="F8">
-        <v>0.5126934418974827</v>
+        <v>0.3791693220809194</v>
       </c>
       <c r="G8">
-        <v>0.4261995784201673</v>
+        <v>0.2447139641292466</v>
       </c>
       <c r="H8">
-        <v>0.2532879303671649</v>
+        <v>0.3677942824806308</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3873096572153827</v>
+        <v>0.1488894214248688</v>
       </c>
       <c r="M8">
-        <v>0.3226741049035127</v>
+        <v>0.199241244492832</v>
       </c>
       <c r="N8">
-        <v>1.605926273077642</v>
+        <v>1.780285295912677</v>
       </c>
       <c r="O8">
-        <v>1.386667449228298</v>
+        <v>1.140286098249589</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.434568179791739</v>
+        <v>1.036460340040406</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03771104739968933</v>
+        <v>0.01168617385914672</v>
       </c>
       <c r="E9">
-        <v>0.5656538168964858</v>
+        <v>0.6812993445192035</v>
       </c>
       <c r="F9">
-        <v>0.6748117982590855</v>
+        <v>0.4156439479334182</v>
       </c>
       <c r="G9">
-        <v>0.5701891300662965</v>
+        <v>0.278823685091993</v>
       </c>
       <c r="H9">
-        <v>0.3100685482098555</v>
+        <v>0.3759795815469857</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5191173848730699</v>
+        <v>0.189321817104755</v>
       </c>
       <c r="M9">
-        <v>0.4285430435519828</v>
+        <v>0.2298019763489663</v>
       </c>
       <c r="N9">
-        <v>1.743290820025749</v>
+        <v>1.813609527625786</v>
       </c>
       <c r="O9">
-        <v>1.811569746921492</v>
+        <v>1.230369855922874</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.683133678178592</v>
+        <v>1.104173268278544</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04473316391753457</v>
+        <v>0.01384473253049379</v>
       </c>
       <c r="E10">
-        <v>0.5996355353107887</v>
+        <v>0.6896089852287801</v>
       </c>
       <c r="F10">
-        <v>0.7987902030424294</v>
+        <v>0.4437536655391199</v>
       </c>
       <c r="G10">
-        <v>0.6803641895849353</v>
+        <v>0.3048166408657238</v>
       </c>
       <c r="H10">
-        <v>0.3544030058576055</v>
+        <v>0.3830168937690956</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6163362756508093</v>
+        <v>0.2189905900715274</v>
       </c>
       <c r="M10">
-        <v>0.5070192337910555</v>
+        <v>0.2524750201102606</v>
       </c>
       <c r="N10">
-        <v>1.851215296329372</v>
+        <v>1.841332301050727</v>
       </c>
       <c r="O10">
-        <v>2.138475391690292</v>
+        <v>1.300624483796497</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.797142825965039</v>
+        <v>1.135298427951739</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04793554518783338</v>
+        <v>0.01482462134583074</v>
       </c>
       <c r="E11">
-        <v>0.6152064064124687</v>
+        <v>0.6935348852775078</v>
       </c>
       <c r="F11">
-        <v>0.856498779143962</v>
+        <v>0.4568281892317998</v>
       </c>
       <c r="G11">
-        <v>0.7316792311780631</v>
+        <v>0.3168467701692634</v>
       </c>
       <c r="H11">
-        <v>0.375249480921525</v>
+        <v>0.386440763620115</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6607034748247571</v>
+        <v>0.2324773293739213</v>
       </c>
       <c r="M11">
-        <v>0.5429246242914658</v>
+        <v>0.2628353816976556</v>
       </c>
       <c r="N11">
-        <v>1.901963805982575</v>
+        <v>1.854637232407271</v>
       </c>
       <c r="O11">
-        <v>2.291131787863236</v>
+        <v>1.333475205718884</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.840466024657701</v>
+        <v>1.147130303915418</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04914965572293539</v>
+        <v>0.01519536946602074</v>
       </c>
       <c r="E12">
-        <v>0.6211172925576989</v>
+        <v>0.6950420686763792</v>
       </c>
       <c r="F12">
-        <v>0.8785620663388443</v>
+        <v>0.4618205506234005</v>
       </c>
       <c r="G12">
-        <v>0.7513042778740839</v>
+        <v>0.3214320167467122</v>
       </c>
       <c r="H12">
-        <v>0.3832507719645406</v>
+        <v>0.3877692839377147</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6775295397806929</v>
+        <v>0.2375827454748816</v>
       </c>
       <c r="M12">
-        <v>0.5565553509774261</v>
+        <v>0.2667650180801786</v>
       </c>
       <c r="N12">
-        <v>1.921429975431238</v>
+        <v>1.859774284043823</v>
       </c>
       <c r="O12">
-        <v>2.349571865865983</v>
+        <v>1.346043428948576</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.831128644832489</v>
+        <v>1.144580090165647</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04888810650472664</v>
+        <v>0.0151155365271407</v>
       </c>
       <c r="E13">
-        <v>0.6198436568917387</v>
+        <v>0.6947165636007284</v>
       </c>
       <c r="F13">
-        <v>0.8738006244235521</v>
+        <v>0.4607435182298616</v>
       </c>
       <c r="G13">
-        <v>0.7470687289048499</v>
+        <v>0.320443179422071</v>
       </c>
       <c r="H13">
-        <v>0.381522623376128</v>
+        <v>0.3874817416817109</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6739045461688278</v>
+        <v>0.2364832843227589</v>
       </c>
       <c r="M13">
-        <v>0.5536181371122808</v>
+        <v>0.265918420455705</v>
       </c>
       <c r="N13">
-        <v>1.91722633761961</v>
+        <v>1.85866355123855</v>
       </c>
       <c r="O13">
-        <v>2.336956537282191</v>
+        <v>1.343330925442757</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.800703942389816</v>
+        <v>1.136270937587454</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04803540023787178</v>
+        <v>0.01485512943220613</v>
       </c>
       <c r="E14">
-        <v>0.6156924165788453</v>
+        <v>0.6936584731972104</v>
       </c>
       <c r="F14">
-        <v>0.8583095934371698</v>
+        <v>0.4572380855640858</v>
       </c>
       <c r="G14">
-        <v>0.7332897977813673</v>
+        <v>0.3172234053950973</v>
       </c>
       <c r="H14">
-        <v>0.3759055463399648</v>
+        <v>0.3865494211250535</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6620872321969671</v>
+        <v>0.2328973913167971</v>
       </c>
       <c r="M14">
-        <v>0.544045321441736</v>
+        <v>0.2631585486404973</v>
       </c>
       <c r="N14">
-        <v>1.903560246930169</v>
+        <v>1.855057887025907</v>
       </c>
       <c r="O14">
-        <v>2.295926624648558</v>
+        <v>1.334506627401652</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.782088010941948</v>
+        <v>1.131187235008667</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04751328926545284</v>
+        <v>0.01469558102522228</v>
       </c>
       <c r="E15">
-        <v>0.6131515066655169</v>
+        <v>0.6930130230077438</v>
       </c>
       <c r="F15">
-        <v>0.8488489530154908</v>
+        <v>0.4550962886779928</v>
       </c>
       <c r="G15">
-        <v>0.724875613318261</v>
+        <v>0.3152550713778908</v>
       </c>
       <c r="H15">
-        <v>0.3724791798365743</v>
+        <v>0.385982511099499</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6548522120637301</v>
+        <v>0.2307006949211967</v>
       </c>
       <c r="M15">
-        <v>0.5381862793236749</v>
+        <v>0.2614688721378968</v>
       </c>
       <c r="N15">
-        <v>1.895222115227114</v>
+        <v>1.85286214617102</v>
       </c>
       <c r="O15">
-        <v>2.270878986783316</v>
+        <v>1.329118212131334</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.675703070675979</v>
+        <v>1.102145574330763</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0445240658077779</v>
+        <v>0.01378065155410724</v>
       </c>
       <c r="E16">
-        <v>0.5986200648813877</v>
+        <v>0.6893553150419791</v>
       </c>
       <c r="F16">
-        <v>0.7950470139907821</v>
+        <v>0.4429049965410314</v>
       </c>
       <c r="G16">
-        <v>0.6770364726752831</v>
+        <v>0.3040345938116644</v>
       </c>
       <c r="H16">
-        <v>0.3530550996549948</v>
+        <v>0.3827976118633671</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6134400285710484</v>
+        <v>0.2181089767294253</v>
       </c>
       <c r="M16">
-        <v>0.5046772572737979</v>
+        <v>0.2517988549239405</v>
       </c>
       <c r="N16">
-        <v>1.847932959624501</v>
+        <v>1.840476666681241</v>
       </c>
       <c r="O16">
-        <v>2.12858378812237</v>
+        <v>1.298495566209937</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.610689928455173</v>
+        <v>1.084411355261835</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04269251960847953</v>
+        <v>0.01321883284421688</v>
       </c>
       <c r="E17">
-        <v>0.5897331269255091</v>
+        <v>0.6871484624955784</v>
       </c>
       <c r="F17">
-        <v>0.7623919497310681</v>
+        <v>0.4354996214862297</v>
       </c>
       <c r="G17">
-        <v>0.6480096161075437</v>
+        <v>0.2972039798174393</v>
       </c>
       <c r="H17">
-        <v>0.3413194697921398</v>
+        <v>0.380900762208114</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.588074603637935</v>
+        <v>0.2103816447098552</v>
       </c>
       <c r="M17">
-        <v>0.4841764586797055</v>
+        <v>0.2458782789983616</v>
       </c>
       <c r="N17">
-        <v>1.819353676968689</v>
+        <v>1.833055542419004</v>
       </c>
       <c r="O17">
-        <v>2.042345689474956</v>
+        <v>1.279938029259512</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.57338312579256</v>
+        <v>1.074241481848048</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0416397958161383</v>
+        <v>0.01289549777328602</v>
       </c>
       <c r="E18">
-        <v>0.5846322737099143</v>
+        <v>0.6858928888903506</v>
       </c>
       <c r="F18">
-        <v>0.7437315432701581</v>
+        <v>0.4312672843776681</v>
       </c>
       <c r="G18">
-        <v>0.6314253421477929</v>
+        <v>0.2932945564709968</v>
       </c>
       <c r="H18">
-        <v>0.3346326960984385</v>
+        <v>0.3798306947329024</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5734981251669922</v>
+        <v>0.2059361905425448</v>
       </c>
       <c r="M18">
-        <v>0.4724040611003346</v>
+        <v>0.2424772921189486</v>
       </c>
       <c r="N18">
-        <v>1.803070524721988</v>
+        <v>1.828852461276114</v>
       </c>
       <c r="O18">
-        <v>1.993111017924406</v>
+        <v>1.269348131244953</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.560766164878032</v>
+        <v>1.070803382134159</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04128347901950491</v>
+        <v>0.01278598972945844</v>
       </c>
       <c r="E19">
-        <v>0.5829070962592269</v>
+        <v>0.6854701480632457</v>
       </c>
       <c r="F19">
-        <v>0.737433747577299</v>
+        <v>0.4298389312311315</v>
       </c>
       <c r="G19">
-        <v>0.6258286697788122</v>
+        <v>0.2919742156919796</v>
       </c>
       <c r="H19">
-        <v>0.3323792505804875</v>
+        <v>0.3794719873754104</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5685648807508272</v>
+        <v>0.2044308918012945</v>
       </c>
       <c r="M19">
-        <v>0.4684212817458189</v>
+        <v>0.2413265352716536</v>
       </c>
       <c r="N19">
-        <v>1.797583605679506</v>
+        <v>1.82744062503383</v>
       </c>
       <c r="O19">
-        <v>1.976502161707629</v>
+        <v>1.265776979596666</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.61760156861763</v>
+        <v>1.086296055281196</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04288741291117049</v>
+        <v>0.01327865939923356</v>
       </c>
       <c r="E20">
-        <v>0.5906780632926996</v>
+        <v>0.6873819658482034</v>
       </c>
       <c r="F20">
-        <v>0.7658553646486013</v>
+        <v>0.4362851377859727</v>
       </c>
       <c r="G20">
-        <v>0.6510879162897538</v>
+        <v>0.2979291053593869</v>
       </c>
       <c r="H20">
-        <v>0.342562133953848</v>
+        <v>0.3811005170244357</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5907734131213118</v>
+        <v>0.211204327565568</v>
       </c>
       <c r="M20">
-        <v>0.4863567933867685</v>
+        <v>0.2465080838521772</v>
       </c>
       <c r="N20">
-        <v>1.822379881151079</v>
+        <v>1.833838777153289</v>
       </c>
       <c r="O20">
-        <v>2.051487421299129</v>
+        <v>1.281904825528585</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.809636201053507</v>
+        <v>1.13871031052679</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04828581929749731</v>
+        <v>0.01493162600111475</v>
       </c>
       <c r="E21">
-        <v>0.6169113549626744</v>
+        <v>0.6939687062784543</v>
       </c>
       <c r="F21">
-        <v>0.8628537951238542</v>
+        <v>0.4582665945197988</v>
       </c>
       <c r="G21">
-        <v>0.7373315854054994</v>
+        <v>0.3181683242764706</v>
       </c>
       <c r="H21">
-        <v>0.3775524290936545</v>
+        <v>0.3868223987104074</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6655575407592664</v>
+        <v>0.2339507042237585</v>
       </c>
       <c r="M21">
-        <v>0.5468561257162108</v>
+        <v>0.2639690185000205</v>
       </c>
       <c r="N21">
-        <v>1.907567464560998</v>
+        <v>1.856114285464315</v>
       </c>
       <c r="O21">
-        <v>2.3079603996282</v>
+        <v>1.337095052488962</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.936026776909216</v>
+        <v>1.173230586653943</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.05182252184789604</v>
+        <v>0.01601009285943178</v>
       </c>
       <c r="E22">
-        <v>0.6341402993382133</v>
+        <v>0.698392986838634</v>
       </c>
       <c r="F22">
-        <v>0.9274849559177198</v>
+        <v>0.4728736139411751</v>
       </c>
       <c r="G22">
-        <v>0.794833588868272</v>
+        <v>0.331568970955928</v>
       </c>
       <c r="H22">
-        <v>0.4010503176383367</v>
+        <v>0.390748340777634</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7145824890724555</v>
+        <v>0.2488066065293992</v>
       </c>
       <c r="M22">
-        <v>0.5865972130234383</v>
+        <v>0.2754178861953847</v>
       </c>
       <c r="N22">
-        <v>1.964698378985702</v>
+        <v>1.871247829840712</v>
       </c>
       <c r="O22">
-        <v>2.479300076320669</v>
+        <v>1.373913354146396</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.868483255304739</v>
+        <v>1.154782551442054</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04993403554774289</v>
+        <v>0.01543466989696896</v>
       </c>
       <c r="E23">
-        <v>0.6249377406170282</v>
+        <v>0.696020877602102</v>
       </c>
       <c r="F23">
-        <v>0.8928692574284014</v>
+        <v>0.4650555295986578</v>
       </c>
       <c r="G23">
-        <v>0.7640322745608046</v>
+        <v>0.3244009171271216</v>
       </c>
       <c r="H23">
-        <v>0.3884480769121978</v>
+        <v>0.3886359492100411</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6884016231913677</v>
+        <v>0.2408787678759268</v>
       </c>
       <c r="M23">
-        <v>0.5653666637372794</v>
+        <v>0.2693040986776509</v>
       </c>
       <c r="N23">
-        <v>1.934069472822131</v>
+        <v>1.863118465576747</v>
       </c>
       <c r="O23">
-        <v>2.387489791253074</v>
+        <v>1.354194211331077</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.614476598884437</v>
+        <v>1.085443902077145</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04279930087177064</v>
+        <v>0.01325161286454346</v>
       </c>
       <c r="E24">
-        <v>0.5902508313797981</v>
+        <v>0.6872763579110597</v>
       </c>
       <c r="F24">
-        <v>0.7642892031088593</v>
+        <v>0.4359299276472512</v>
       </c>
       <c r="G24">
-        <v>0.64969589550752</v>
+        <v>0.2976012213261612</v>
       </c>
       <c r="H24">
-        <v>0.3420001387074052</v>
+        <v>0.381010144147595</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.589553261644042</v>
+        <v>0.2108324016808467</v>
       </c>
       <c r="M24">
-        <v>0.4853710214650491</v>
+        <v>0.2462233402390268</v>
       </c>
       <c r="N24">
-        <v>1.82101127577215</v>
+        <v>1.83348447910106</v>
       </c>
       <c r="O24">
-        <v>2.047353375356636</v>
+        <v>1.281015390627942</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.343760330467859</v>
+        <v>1.011815718223829</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03513032172942587</v>
+        <v>0.01088956952894193</v>
       </c>
       <c r="E25">
-        <v>0.5532501382638202</v>
+        <v>0.678371389623841</v>
       </c>
       <c r="F25">
-        <v>0.6301794461961947</v>
+        <v>0.4055467811216857</v>
       </c>
       <c r="G25">
-        <v>0.5305432199115501</v>
+        <v>0.2694332153113237</v>
       </c>
       <c r="H25">
-        <v>0.2942831577370839</v>
+        <v>0.3735855160792312</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4834113693503639</v>
+        <v>0.1783894096312082</v>
       </c>
       <c r="M25">
-        <v>0.3997979062336228</v>
+        <v>0.2214951196794317</v>
       </c>
       <c r="N25">
-        <v>1.704942054032159</v>
+        <v>1.804021938070463</v>
       </c>
       <c r="O25">
-        <v>1.694272844754636</v>
+        <v>1.205287008960426</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_243/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_243/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9586238692716051</v>
+        <v>1.146660539973823</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.009144461530631531</v>
+        <v>0.02949573243968473</v>
       </c>
       <c r="E2">
-        <v>0.6722825207559993</v>
+        <v>0.5264167106684852</v>
       </c>
       <c r="F2">
-        <v>0.384057915175795</v>
+        <v>0.534615088697187</v>
       </c>
       <c r="G2">
-        <v>0.2493200085657747</v>
+        <v>0.4456692615699609</v>
       </c>
       <c r="H2">
-        <v>0.3688069070791613</v>
+        <v>0.2608676207464242</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1544792843802014</v>
+        <v>0.4054967308371005</v>
       </c>
       <c r="M2">
-        <v>0.2034375728087099</v>
+        <v>0.3372398299505832</v>
       </c>
       <c r="N2">
-        <v>1.784511145164188</v>
+        <v>1.624140337668024</v>
       </c>
       <c r="O2">
-        <v>1.152264400375913</v>
+        <v>1.443923921206874</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9232221726074954</v>
+        <v>1.014206261482514</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.007958255668356173</v>
+        <v>0.02567953891572472</v>
       </c>
       <c r="E3">
-        <v>0.6684553001518125</v>
+        <v>0.5085147369115361</v>
       </c>
       <c r="F3">
-        <v>0.3700419434593272</v>
+        <v>0.4714847319659867</v>
       </c>
       <c r="G3">
-        <v>0.2360756146370449</v>
+        <v>0.3895957682154716</v>
       </c>
       <c r="H3">
-        <v>0.3659973866940902</v>
+        <v>0.2391414624672024</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.138264602842483</v>
+        <v>0.3527616935189286</v>
       </c>
       <c r="M3">
-        <v>0.1912961617525397</v>
+        <v>0.2950484612815529</v>
       </c>
       <c r="N3">
-        <v>1.772666014063461</v>
+        <v>1.572104318667698</v>
       </c>
       <c r="O3">
-        <v>1.118026951725682</v>
+        <v>1.279231471061024</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9018086496192268</v>
+        <v>0.9333516215036468</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.007228256460006577</v>
+        <v>0.02333604660197608</v>
       </c>
       <c r="E4">
-        <v>0.6662555964438113</v>
+        <v>0.4976720898395257</v>
       </c>
       <c r="F4">
-        <v>0.3617052620121228</v>
+        <v>0.4334217570270056</v>
       </c>
       <c r="G4">
-        <v>0.2281328915768626</v>
+        <v>0.3557769610686847</v>
       </c>
       <c r="H4">
-        <v>0.3644839444711607</v>
+        <v>0.2262087458908013</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1283049262639651</v>
+        <v>0.3203924365207342</v>
       </c>
       <c r="M4">
-        <v>0.1838900102612087</v>
+        <v>0.2692212767188842</v>
       </c>
       <c r="N4">
-        <v>1.766078413195842</v>
+        <v>1.541442522445195</v>
       </c>
       <c r="O4">
-        <v>1.097839114247421</v>
+        <v>1.180246215560487</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8931645848557821</v>
+        <v>0.9005108533518751</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.006930374724575472</v>
+        <v>0.0223807718892246</v>
       </c>
       <c r="E5">
-        <v>0.6653974009233821</v>
+        <v>0.4932926728089484</v>
       </c>
       <c r="F5">
-        <v>0.3583756640998104</v>
+        <v>0.4180718146164821</v>
       </c>
       <c r="G5">
-        <v>0.2249436815688171</v>
+        <v>0.3421347668206351</v>
       </c>
       <c r="H5">
-        <v>0.3639204508781688</v>
+        <v>0.2210345039380002</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1242456165055899</v>
+        <v>0.3072012492610412</v>
       </c>
       <c r="M5">
-        <v>0.1808844404367065</v>
+        <v>0.2587132553905178</v>
       </c>
       <c r="N5">
-        <v>1.763567264345355</v>
+        <v>1.529264193007393</v>
       </c>
       <c r="O5">
-        <v>1.089821979151111</v>
+        <v>1.140402369049497</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8917342288413295</v>
+        <v>0.8950638977890435</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006880887970279304</v>
+        <v>0.02222212657055067</v>
       </c>
       <c r="E6">
-        <v>0.6652572180304901</v>
+        <v>0.492567876978832</v>
       </c>
       <c r="F6">
-        <v>0.3578268732493655</v>
+        <v>0.4155322740833327</v>
       </c>
       <c r="G6">
-        <v>0.2244169822080977</v>
+        <v>0.3398774962194437</v>
       </c>
       <c r="H6">
-        <v>0.3638301001561075</v>
+        <v>0.2201809369685321</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1235715399681112</v>
+        <v>0.3050107503434987</v>
       </c>
       <c r="M6">
-        <v>0.1803861298627929</v>
+        <v>0.2569693354479021</v>
       </c>
       <c r="N6">
-        <v>1.763160789950348</v>
+        <v>1.52726090417066</v>
       </c>
       <c r="O6">
-        <v>1.088503392742496</v>
+        <v>1.133814890641247</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9016917391358561</v>
+        <v>0.9329082952991143</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00722424072483463</v>
+        <v>0.02332316483277452</v>
       </c>
       <c r="E7">
-        <v>0.6662438672750639</v>
+        <v>0.4976128673664064</v>
       </c>
       <c r="F7">
-        <v>0.3616600839357318</v>
+        <v>0.4332141094160988</v>
       </c>
       <c r="G7">
-        <v>0.2280896885382617</v>
+        <v>0.355592432253971</v>
       </c>
       <c r="H7">
-        <v>0.3644761293625152</v>
+        <v>0.2261385840836425</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.128250183277828</v>
+        <v>0.3202145412599151</v>
       </c>
       <c r="M7">
-        <v>0.1838494251705214</v>
+        <v>0.2690794977890114</v>
       </c>
       <c r="N7">
-        <v>1.766043843718521</v>
+        <v>1.541277008804428</v>
       </c>
       <c r="O7">
-        <v>1.097730144033875</v>
+        <v>1.179706925938206</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9463507579103521</v>
+        <v>1.100885493556007</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.008735813160249961</v>
+        <v>0.0281798545978873</v>
       </c>
       <c r="E8">
-        <v>0.6709319691538838</v>
+        <v>0.5202140455785482</v>
       </c>
       <c r="F8">
-        <v>0.3791693220809194</v>
+        <v>0.5126934418974827</v>
       </c>
       <c r="G8">
-        <v>0.2447139641292466</v>
+        <v>0.4261995784201531</v>
       </c>
       <c r="H8">
-        <v>0.3677942824806308</v>
+        <v>0.2532879303670512</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1488894214248688</v>
+        <v>0.3873096572152548</v>
       </c>
       <c r="M8">
-        <v>0.199241244492832</v>
+        <v>0.3226741049035056</v>
       </c>
       <c r="N8">
-        <v>1.780285295912677</v>
+        <v>1.605926273077642</v>
       </c>
       <c r="O8">
-        <v>1.140286098249589</v>
+        <v>1.386667449228383</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.036460340040406</v>
+        <v>1.434568179791768</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01168617385914672</v>
+        <v>0.03771104739981013</v>
       </c>
       <c r="E9">
-        <v>0.6812993445192035</v>
+        <v>0.5656538168964502</v>
       </c>
       <c r="F9">
-        <v>0.4156439479334182</v>
+        <v>0.6748117982590855</v>
       </c>
       <c r="G9">
-        <v>0.278823685091993</v>
+        <v>0.5701891300662538</v>
       </c>
       <c r="H9">
-        <v>0.3759795815469857</v>
+        <v>0.3100685482098555</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.189321817104755</v>
+        <v>0.519117384872871</v>
       </c>
       <c r="M9">
-        <v>0.2298019763489663</v>
+        <v>0.4285430435519757</v>
       </c>
       <c r="N9">
-        <v>1.813609527625786</v>
+        <v>1.743290820025763</v>
       </c>
       <c r="O9">
-        <v>1.230369855922874</v>
+        <v>1.811569746921435</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.104173268278544</v>
+        <v>1.683133678178592</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01384473253049379</v>
+        <v>0.04473316391754167</v>
       </c>
       <c r="E10">
-        <v>0.6896089852287801</v>
+        <v>0.5996355353107745</v>
       </c>
       <c r="F10">
-        <v>0.4437536655391199</v>
+        <v>0.7987902030424294</v>
       </c>
       <c r="G10">
-        <v>0.3048166408657238</v>
+        <v>0.6803641895849211</v>
       </c>
       <c r="H10">
-        <v>0.3830168937690956</v>
+        <v>0.3544030058577192</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2189905900715274</v>
+        <v>0.6163362756506388</v>
       </c>
       <c r="M10">
-        <v>0.2524750201102606</v>
+        <v>0.5070192337910626</v>
       </c>
       <c r="N10">
-        <v>1.841332301050727</v>
+        <v>1.851215296329372</v>
       </c>
       <c r="O10">
-        <v>1.300624483796497</v>
+        <v>2.138475391690321</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.135298427951739</v>
+        <v>1.797142825965096</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01482462134583074</v>
+        <v>0.04793554518783338</v>
       </c>
       <c r="E11">
-        <v>0.6935348852775078</v>
+        <v>0.6152064064124332</v>
       </c>
       <c r="F11">
-        <v>0.4568281892317998</v>
+        <v>0.8564987791439478</v>
       </c>
       <c r="G11">
-        <v>0.3168467701692634</v>
+        <v>0.7316792311780063</v>
       </c>
       <c r="H11">
-        <v>0.386440763620115</v>
+        <v>0.3752494809214113</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2324773293739213</v>
+        <v>0.6607034748246718</v>
       </c>
       <c r="M11">
-        <v>0.2628353816976556</v>
+        <v>0.5429246242914445</v>
       </c>
       <c r="N11">
-        <v>1.854637232407271</v>
+        <v>1.901963805982547</v>
       </c>
       <c r="O11">
-        <v>1.333475205718884</v>
+        <v>2.291131787863236</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.147130303915418</v>
+        <v>1.840466024657758</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01519536946602074</v>
+        <v>0.0491496557229425</v>
       </c>
       <c r="E12">
-        <v>0.6950420686763792</v>
+        <v>0.6211172925576847</v>
       </c>
       <c r="F12">
-        <v>0.4618205506234005</v>
+        <v>0.8785620663388443</v>
       </c>
       <c r="G12">
-        <v>0.3214320167467122</v>
+        <v>0.751304277874155</v>
       </c>
       <c r="H12">
-        <v>0.3877692839377147</v>
+        <v>0.3832507719644269</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2375827454748816</v>
+        <v>0.6775295397807071</v>
       </c>
       <c r="M12">
-        <v>0.2667650180801786</v>
+        <v>0.5565553509774119</v>
       </c>
       <c r="N12">
-        <v>1.859774284043823</v>
+        <v>1.921429975431181</v>
       </c>
       <c r="O12">
-        <v>1.346043428948576</v>
+        <v>2.349571865865983</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.144580090165647</v>
+        <v>1.831128644832859</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0151155365271407</v>
+        <v>0.04888810650472664</v>
       </c>
       <c r="E13">
-        <v>0.6947165636007284</v>
+        <v>0.6198436568917245</v>
       </c>
       <c r="F13">
-        <v>0.4607435182298616</v>
+        <v>0.8738006244235521</v>
       </c>
       <c r="G13">
-        <v>0.320443179422071</v>
+        <v>0.7470687289048215</v>
       </c>
       <c r="H13">
-        <v>0.3874817416817109</v>
+        <v>0.3815226233761422</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2364832843227589</v>
+        <v>0.673904546168842</v>
       </c>
       <c r="M13">
-        <v>0.265918420455705</v>
+        <v>0.5536181371122666</v>
       </c>
       <c r="N13">
-        <v>1.85866355123855</v>
+        <v>1.917226337619638</v>
       </c>
       <c r="O13">
-        <v>1.343330925442757</v>
+        <v>2.336956537282191</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.136270937587454</v>
+        <v>1.800703942389532</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01485512943220613</v>
+        <v>0.04803540023780783</v>
       </c>
       <c r="E14">
-        <v>0.6936584731972104</v>
+        <v>0.6156924165788809</v>
       </c>
       <c r="F14">
-        <v>0.4572380855640858</v>
+        <v>0.858309593437184</v>
       </c>
       <c r="G14">
-        <v>0.3172234053950973</v>
+        <v>0.7332897977814241</v>
       </c>
       <c r="H14">
-        <v>0.3865494211250535</v>
+        <v>0.3759055463399648</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2328973913167971</v>
+        <v>0.6620872321970666</v>
       </c>
       <c r="M14">
-        <v>0.2631585486404973</v>
+        <v>0.5440453214417289</v>
       </c>
       <c r="N14">
-        <v>1.855057887025907</v>
+        <v>1.903560246930169</v>
       </c>
       <c r="O14">
-        <v>1.334506627401652</v>
+        <v>2.295926624648558</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.131187235008667</v>
+        <v>1.78208801094172</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01469558102522228</v>
+        <v>0.04751328926551679</v>
       </c>
       <c r="E15">
-        <v>0.6930130230077438</v>
+        <v>0.6131515066655027</v>
       </c>
       <c r="F15">
-        <v>0.4550962886779928</v>
+        <v>0.8488489530154766</v>
       </c>
       <c r="G15">
-        <v>0.3152550713778908</v>
+        <v>0.7248756133182326</v>
       </c>
       <c r="H15">
-        <v>0.385982511099499</v>
+        <v>0.3724791798365601</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2307006949211967</v>
+        <v>0.6548522120635738</v>
       </c>
       <c r="M15">
-        <v>0.2614688721378968</v>
+        <v>0.538186279323682</v>
       </c>
       <c r="N15">
-        <v>1.85286214617102</v>
+        <v>1.89522211522717</v>
       </c>
       <c r="O15">
-        <v>1.329118212131334</v>
+        <v>2.270878986783259</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.102145574330763</v>
+        <v>1.675703070675979</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01378065155410724</v>
+        <v>0.04452406580789159</v>
       </c>
       <c r="E16">
-        <v>0.6893553150419791</v>
+        <v>0.5986200648814162</v>
       </c>
       <c r="F16">
-        <v>0.4429049965410314</v>
+        <v>0.7950470139907964</v>
       </c>
       <c r="G16">
-        <v>0.3040345938116644</v>
+        <v>0.6770364726752831</v>
       </c>
       <c r="H16">
-        <v>0.3827976118633671</v>
+        <v>0.3530550996549948</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2181089767294253</v>
+        <v>0.6134400285710626</v>
       </c>
       <c r="M16">
-        <v>0.2517988549239405</v>
+        <v>0.504677257273805</v>
       </c>
       <c r="N16">
-        <v>1.840476666681241</v>
+        <v>1.847932959624558</v>
       </c>
       <c r="O16">
-        <v>1.298495566209937</v>
+        <v>2.128583788122398</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.084411355261835</v>
+        <v>1.610689928455145</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01321883284421688</v>
+        <v>0.04269251960858611</v>
       </c>
       <c r="E17">
-        <v>0.6871484624955784</v>
+        <v>0.5897331269255446</v>
       </c>
       <c r="F17">
-        <v>0.4354996214862297</v>
+        <v>0.7623919497310823</v>
       </c>
       <c r="G17">
-        <v>0.2972039798174393</v>
+        <v>0.6480096161075437</v>
       </c>
       <c r="H17">
-        <v>0.380900762208114</v>
+        <v>0.3413194697921398</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2103816447098552</v>
+        <v>0.5880746036379776</v>
       </c>
       <c r="M17">
-        <v>0.2458782789983616</v>
+        <v>0.4841764586797055</v>
       </c>
       <c r="N17">
-        <v>1.833055542419004</v>
+        <v>1.81935367696866</v>
       </c>
       <c r="O17">
-        <v>1.279938029259512</v>
+        <v>2.042345689474956</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.074241481848048</v>
+        <v>1.573383125792759</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01289549777328602</v>
+        <v>0.04163979581625199</v>
       </c>
       <c r="E18">
-        <v>0.6858928888903506</v>
+        <v>0.5846322737099499</v>
       </c>
       <c r="F18">
-        <v>0.4312672843776681</v>
+        <v>0.7437315432701581</v>
       </c>
       <c r="G18">
-        <v>0.2932945564709968</v>
+        <v>0.6314253421478213</v>
       </c>
       <c r="H18">
-        <v>0.3798306947329024</v>
+        <v>0.3346326960984527</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2059361905425448</v>
+        <v>0.5734981251669922</v>
       </c>
       <c r="M18">
-        <v>0.2424772921189486</v>
+        <v>0.4724040611003559</v>
       </c>
       <c r="N18">
-        <v>1.828852461276114</v>
+        <v>1.803070524721988</v>
       </c>
       <c r="O18">
-        <v>1.269348131244953</v>
+        <v>1.993111017924321</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.070803382134159</v>
+        <v>1.560766164878032</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01278598972945844</v>
+        <v>0.04128347901950491</v>
       </c>
       <c r="E19">
-        <v>0.6854701480632457</v>
+        <v>0.5829070962592482</v>
       </c>
       <c r="F19">
-        <v>0.4298389312311315</v>
+        <v>0.737433747577299</v>
       </c>
       <c r="G19">
-        <v>0.2919742156919796</v>
+        <v>0.6258286697788122</v>
       </c>
       <c r="H19">
-        <v>0.3794719873754104</v>
+        <v>0.3323792505804875</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2044308918012945</v>
+        <v>0.5685648807507988</v>
       </c>
       <c r="M19">
-        <v>0.2413265352716536</v>
+        <v>0.4684212817458331</v>
       </c>
       <c r="N19">
-        <v>1.82744062503383</v>
+        <v>1.797583605679534</v>
       </c>
       <c r="O19">
-        <v>1.265776979596666</v>
+        <v>1.976502161707657</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.086296055281196</v>
+        <v>1.617601568617744</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01327865939923356</v>
+        <v>0.04288741291100706</v>
       </c>
       <c r="E20">
-        <v>0.6873819658482034</v>
+        <v>0.5906780632926854</v>
       </c>
       <c r="F20">
-        <v>0.4362851377859727</v>
+        <v>0.7658553646486155</v>
       </c>
       <c r="G20">
-        <v>0.2979291053593869</v>
+        <v>0.6510879162898107</v>
       </c>
       <c r="H20">
-        <v>0.3811005170244357</v>
+        <v>0.3425621339536065</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.211204327565568</v>
+        <v>0.5907734131212976</v>
       </c>
       <c r="M20">
-        <v>0.2465080838521772</v>
+        <v>0.4863567933867614</v>
       </c>
       <c r="N20">
-        <v>1.833838777153289</v>
+        <v>1.822379881151136</v>
       </c>
       <c r="O20">
-        <v>1.281904825528585</v>
+        <v>2.051487421299129</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.13871031052679</v>
+        <v>1.809636201053479</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01493162600111475</v>
+        <v>0.04828581929767495</v>
       </c>
       <c r="E21">
-        <v>0.6939687062784543</v>
+        <v>0.6169113549626815</v>
       </c>
       <c r="F21">
-        <v>0.4582665945197988</v>
+        <v>0.86285379512384</v>
       </c>
       <c r="G21">
-        <v>0.3181683242764706</v>
+        <v>0.7373315854053999</v>
       </c>
       <c r="H21">
-        <v>0.3868223987104074</v>
+        <v>0.3775524290937682</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2339507042237585</v>
+        <v>0.665557540759238</v>
       </c>
       <c r="M21">
-        <v>0.2639690185000205</v>
+        <v>0.546856125716225</v>
       </c>
       <c r="N21">
-        <v>1.856114285464315</v>
+        <v>1.907567464560884</v>
       </c>
       <c r="O21">
-        <v>1.337095052488962</v>
+        <v>2.307960399628257</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.173230586653943</v>
+        <v>1.936026776908989</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01601009285943178</v>
+        <v>0.05182252184800973</v>
       </c>
       <c r="E22">
-        <v>0.698392986838634</v>
+        <v>0.6341402993382559</v>
       </c>
       <c r="F22">
-        <v>0.4728736139411751</v>
+        <v>0.9274849559177198</v>
       </c>
       <c r="G22">
-        <v>0.331568970955928</v>
+        <v>0.794833588868272</v>
       </c>
       <c r="H22">
-        <v>0.390748340777634</v>
+        <v>0.4010503176383224</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2488066065293992</v>
+        <v>0.7145824890724839</v>
       </c>
       <c r="M22">
-        <v>0.2754178861953847</v>
+        <v>0.5865972130234454</v>
       </c>
       <c r="N22">
-        <v>1.871247829840712</v>
+        <v>1.964698378985702</v>
       </c>
       <c r="O22">
-        <v>1.373913354146396</v>
+        <v>2.479300076320669</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.154782551442054</v>
+        <v>1.868483255304739</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01543466989696896</v>
+        <v>0.04993403554791342</v>
       </c>
       <c r="E23">
-        <v>0.696020877602102</v>
+        <v>0.624937740617014</v>
       </c>
       <c r="F23">
-        <v>0.4650555295986578</v>
+        <v>0.8928692574284156</v>
       </c>
       <c r="G23">
-        <v>0.3244009171271216</v>
+        <v>0.7640322745608898</v>
       </c>
       <c r="H23">
-        <v>0.3886359492100411</v>
+        <v>0.3884480769120842</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2408787678759268</v>
+        <v>0.6884016231912682</v>
       </c>
       <c r="M23">
-        <v>0.2693040986776509</v>
+        <v>0.5653666637372723</v>
       </c>
       <c r="N23">
-        <v>1.863118465576747</v>
+        <v>1.934069472822245</v>
       </c>
       <c r="O23">
-        <v>1.354194211331077</v>
+        <v>2.387489791253046</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.085443902077145</v>
+        <v>1.614476598884636</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01325161286454346</v>
+        <v>0.04279930087176353</v>
       </c>
       <c r="E24">
-        <v>0.6872763579110597</v>
+        <v>0.5902508313798265</v>
       </c>
       <c r="F24">
-        <v>0.4359299276472512</v>
+        <v>0.7642892031088451</v>
       </c>
       <c r="G24">
-        <v>0.2976012213261612</v>
+        <v>0.6496958955075485</v>
       </c>
       <c r="H24">
-        <v>0.381010144147595</v>
+        <v>0.3420001387074052</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2108324016808467</v>
+        <v>0.589553261644042</v>
       </c>
       <c r="M24">
-        <v>0.2462233402390268</v>
+        <v>0.4853710214650633</v>
       </c>
       <c r="N24">
-        <v>1.83348447910106</v>
+        <v>1.82101127577215</v>
       </c>
       <c r="O24">
-        <v>1.281015390627942</v>
+        <v>2.047353375356636</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.011815718223829</v>
+        <v>1.343760330467745</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01088956952894193</v>
+        <v>0.03513032172953956</v>
       </c>
       <c r="E25">
-        <v>0.678371389623841</v>
+        <v>0.553250138263806</v>
       </c>
       <c r="F25">
-        <v>0.4055467811216857</v>
+        <v>0.6301794461961805</v>
       </c>
       <c r="G25">
-        <v>0.2694332153113237</v>
+        <v>0.5305432199114932</v>
       </c>
       <c r="H25">
-        <v>0.3735855160792312</v>
+        <v>0.2942831577370839</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1783894096312082</v>
+        <v>0.4834113693504776</v>
       </c>
       <c r="M25">
-        <v>0.2214951196794317</v>
+        <v>0.3997979062336015</v>
       </c>
       <c r="N25">
-        <v>1.804021938070463</v>
+        <v>1.704942054032159</v>
       </c>
       <c r="O25">
-        <v>1.205287008960426</v>
+        <v>1.694272844754693</v>
       </c>
     </row>
   </sheetData>
